--- a/data/trans_orig/P32A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10509</v>
+        <v>10788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0330193792162391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01279055382458857</v>
+        <v>0.01285891153192029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07190685691062838</v>
+        <v>0.07381693494746487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10691</v>
+        <v>10488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02197271856585976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008612704613569274</v>
+        <v>0.008598207339182155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04867773199099944</v>
+        <v>0.04775498641967522</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>141323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135640</v>
+        <v>135361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144280</v>
+        <v>144270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9669806207837609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9280931430893715</v>
+        <v>0.926183065052533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872094461754114</v>
+        <v>0.9871410884680797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -841,19 +841,19 @@
         <v>214799</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>208934</v>
+        <v>209137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217733</v>
+        <v>217737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9780272814341402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9513222680090005</v>
+        <v>0.9522450135803245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9913872953864307</v>
+        <v>0.9914017926608177</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>5243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2051</v>
+        <v>2060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11517</v>
+        <v>11663</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02291428831633261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008964276606534401</v>
+        <v>0.009003616283998282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05033433419965389</v>
+        <v>0.05097168833694255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>5243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2026</v>
+        <v>2065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10662</v>
+        <v>11535</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01738640091676555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006716797638166879</v>
+        <v>0.006847540163170098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03535392112409436</v>
+        <v>0.03825051496220576</v>
       </c>
     </row>
     <row r="8">
@@ -1008,19 +1008,19 @@
         <v>223574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217300</v>
+        <v>217154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226766</v>
+        <v>226757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9770857116836674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9496656658003462</v>
+        <v>0.9490283116630575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910357233934657</v>
+        <v>0.9909963837160017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1042,19 +1042,19 @@
         <v>296325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>290906</v>
+        <v>290033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>299542</v>
+        <v>299503</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9826135990832344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9646460788759057</v>
+        <v>0.9617494850377942</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9932832023618331</v>
+        <v>0.9931524598368299</v>
       </c>
     </row>
     <row r="9">
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5306</v>
+        <v>5335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005435522945811025</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02736108794240035</v>
+        <v>0.02750950961205572</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6118</v>
+        <v>5329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003766109293814936</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0218559559131591</v>
+        <v>0.01903664120408536</v>
       </c>
     </row>
     <row r="11">
@@ -1209,7 +1209,7 @@
         <v>192886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188634</v>
+        <v>188605</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>193940</v>
@@ -1218,7 +1218,7 @@
         <v>0.9945644770541889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9726389120575997</v>
+        <v>0.9724904903879441</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>278855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>273791</v>
+        <v>274580</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>279909</v>
@@ -1252,7 +1252,7 @@
         <v>0.9962338907061851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9781440440868409</v>
+        <v>0.9809633587959147</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6874</v>
+        <v>6866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008238019753677715</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02889496416564602</v>
+        <v>0.02886263445058503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4653</v>
+        <v>4621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007055016847126407</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03554101256336678</v>
+        <v>0.03529393844248207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1389,19 +1389,19 @@
         <v>2883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7795</v>
+        <v>7699</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007818070500295104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002481223847171682</v>
+        <v>0.002488724395277363</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02113381430350047</v>
+        <v>0.02087416812178445</v>
       </c>
     </row>
     <row r="14">
@@ -1418,7 +1418,7 @@
         <v>235935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>231021</v>
+        <v>231029</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>237895</v>
@@ -1427,7 +1427,7 @@
         <v>0.9917619802463223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9711050358343539</v>
+        <v>0.9711373655494147</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>130002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126273</v>
+        <v>126305</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>130926</v>
@@ -1448,7 +1448,7 @@
         <v>0.9929449831528736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9644589874366331</v>
+        <v>0.9647060615575178</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1460,19 +1460,19 @@
         <v>365939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>361027</v>
+        <v>361123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367907</v>
+        <v>367904</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9921819294997049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9788661856964999</v>
+        <v>0.9791258318782159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9975187761528282</v>
+        <v>0.9975112756047226</v>
       </c>
     </row>
     <row r="15">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009239868398853122</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4516</v>
+        <v>4521</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006209140945782711</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03131971100686781</v>
+        <v>0.03135316200476772</v>
       </c>
     </row>
     <row r="17">
@@ -1627,7 +1627,7 @@
         <v>96003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92275</v>
+        <v>92270</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>96898</v>
@@ -1636,7 +1636,7 @@
         <v>0.9907601316011468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9522906158549657</v>
+        <v>0.9522394046995434</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>143299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139678</v>
+        <v>139673</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>144194</v>
@@ -1670,7 +1670,7 @@
         <v>0.9937908590542173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9686802889931323</v>
+        <v>0.9686468379952324</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8646</v>
+        <v>8595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008920016459275893</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04450005067468208</v>
+        <v>0.04423958504213863</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8580</v>
+        <v>8676</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005681161467678883</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02812738372936912</v>
+        <v>0.02844193367064298</v>
       </c>
     </row>
     <row r="20">
@@ -1828,7 +1828,7 @@
         <v>192551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185638</v>
+        <v>185689</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>194284</v>
@@ -1837,7 +1837,7 @@
         <v>0.9910799835407241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.955499949325318</v>
+        <v>0.9557604149578613</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>303313</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>296466</v>
+        <v>296370</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>305046</v>
@@ -1871,7 +1871,7 @@
         <v>0.9943188385323212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9718726162706309</v>
+        <v>0.971558066329357</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6456</v>
+        <v>6497</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006330752520811175</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02226013087583989</v>
+        <v>0.02239994811523711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6648</v>
+        <v>5529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00434674924610196</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01573723451315457</v>
+        <v>0.01308996511646001</v>
       </c>
     </row>
     <row r="23">
@@ -2029,7 +2029,7 @@
         <v>288197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>283577</v>
+        <v>283536</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>290033</v>
@@ -2038,7 +2038,7 @@
         <v>0.9936692474791888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9777398691241601</v>
+        <v>0.9776000518847618</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>420578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>415766</v>
+        <v>416885</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>422414</v>
@@ -2072,7 +2072,7 @@
         <v>0.995653250753898</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9842627654868454</v>
+        <v>0.98691003488354</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2167,19 +2167,19 @@
         <v>2541</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7386</v>
+        <v>6903</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005155978695422428</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001570588541405085</v>
+        <v>0.001560765753405565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0149842555424145</v>
+        <v>0.01400569727853696</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7115</v>
+        <v>6869</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008482682727762807</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02965499857108524</v>
+        <v>0.02862860820858499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2209,19 +2209,19 @@
         <v>4577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1759</v>
+        <v>1655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10394</v>
+        <v>10607</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006245191998776789</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002399667560747675</v>
+        <v>0.002259000960602372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01418302380072766</v>
+        <v>0.01447462386374852</v>
       </c>
     </row>
     <row r="26">
@@ -2238,19 +2238,19 @@
         <v>490347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>485502</v>
+        <v>485985</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>492114</v>
+        <v>492119</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9948440213045776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9850157444575842</v>
+        <v>0.9859943027214628</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9984294114585949</v>
+        <v>0.9984392342465944</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -2259,7 +2259,7 @@
         <v>237903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>232823</v>
+        <v>233069</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>239938</v>
@@ -2268,7 +2268,7 @@
         <v>0.9915173172722372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9703450014289147</v>
+        <v>0.9713713917914124</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2280,19 +2280,19 @@
         <v>728249</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>722432</v>
+        <v>722219</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>731067</v>
+        <v>731171</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9937548080012232</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9858169761992726</v>
+        <v>0.9855253761362519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9976003324392524</v>
+        <v>0.9977409990393976</v>
       </c>
     </row>
     <row r="27">
@@ -2384,19 +2384,19 @@
         <v>20089</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01068032722022275</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>2959</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003311710099870096</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2426,19 +2426,19 @@
         <v>23048</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00830725709611568</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
     </row>
     <row r="29">
@@ -2455,19 +2455,19 @@
         <v>1860815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1850713</v>
+        <v>1849556</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1868577</v>
+        <v>1867749</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9893196727797773</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9839487829081536</v>
+        <v>0.9833332963898922</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.993446150004451</v>
+        <v>0.993005830115267</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>870</v>
@@ -2476,19 +2476,19 @@
         <v>890540</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>885385</v>
+        <v>885416</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>892577</v>
+        <v>893148</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9966882899001299</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9909192893621036</v>
+        <v>0.9909538819685459</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9989680730795941</v>
+        <v>0.999606759373823</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2696</v>
@@ -2497,19 +2497,19 @@
         <v>2751355</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2740067</v>
+        <v>2739569</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2759560</v>
+        <v>2759196</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9916927429038843</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9876241271076841</v>
+        <v>0.9874443280077053</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9946500406839222</v>
+        <v>0.9945188644584428</v>
       </c>
     </row>
     <row r="30">
@@ -2845,19 +2845,19 @@
         <v>22734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15031</v>
+        <v>15150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33457</v>
+        <v>32041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1296656500767166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08573494330397426</v>
+        <v>0.08641259415830418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.190829655919009</v>
+        <v>0.1827493402608498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2866,19 +2866,19 @@
         <v>5044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1173</v>
+        <v>1216</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12540</v>
+        <v>13674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04597957661787568</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01069597097942894</v>
+        <v>0.01108296261812357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1143231259921051</v>
+        <v>0.124662341779509</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -2887,19 +2887,19 @@
         <v>27777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18433</v>
+        <v>18656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40938</v>
+        <v>40797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09745816678643258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06467181898216773</v>
+        <v>0.06545699233220328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1436333257459302</v>
+        <v>0.14313867093066</v>
       </c>
     </row>
     <row r="5">
@@ -2916,19 +2916,19 @@
         <v>152591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141868</v>
+        <v>143284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160294</v>
+        <v>160175</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8703343499232834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8091703440809911</v>
+        <v>0.8172506597391501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9142650566960258</v>
+        <v>0.9135874058416957</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -2937,19 +2937,19 @@
         <v>104648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97152</v>
+        <v>96018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108519</v>
+        <v>108476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9540204233821243</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8856768740078945</v>
+        <v>0.8753376582204909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.989304029020571</v>
+        <v>0.9889170373818764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>236</v>
@@ -2958,19 +2958,19 @@
         <v>257240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244079</v>
+        <v>244220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266584</v>
+        <v>266361</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9025418332135674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8563666742540685</v>
+        <v>0.8568613290693399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9353281810178319</v>
+        <v>0.9345430076677967</v>
       </c>
     </row>
     <row r="6">
@@ -3062,19 +3062,19 @@
         <v>4251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14764</v>
+        <v>15608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0137534300637682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00311397098872253</v>
+        <v>0.003072790966168112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04776875670030793</v>
+        <v>0.05049814393445515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5271</v>
+        <v>5676</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006794371007524233</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0348218771714061</v>
+        <v>0.03750253164054202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -3104,19 +3104,19 @@
         <v>5279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13681</v>
+        <v>13759</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01146573054342284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002248281330399798</v>
+        <v>0.002249694306125147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02971404035920824</v>
+        <v>0.02988199348272157</v>
       </c>
     </row>
     <row r="8">
@@ -3133,19 +3133,19 @@
         <v>304822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294309</v>
+        <v>293465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>308111</v>
+        <v>308123</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862465699362318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9522312432996928</v>
+        <v>0.9495018560655452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968860290112775</v>
+        <v>0.9969272090338319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>138</v>
@@ -3154,7 +3154,7 @@
         <v>150334</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146091</v>
+        <v>145686</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>151362</v>
@@ -3163,7 +3163,7 @@
         <v>0.9932056289924758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9651781228285939</v>
+        <v>0.9624974683594525</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3175,19 +3175,19 @@
         <v>455155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>446753</v>
+        <v>446675</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>459399</v>
+        <v>459398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9885342694565772</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9702859596407912</v>
+        <v>0.9701180065172776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977517186696002</v>
+        <v>0.9977503056938749</v>
       </c>
     </row>
     <row r="9">
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5246</v>
+        <v>5390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004642180038788901</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02604089407028452</v>
+        <v>0.02675523675421599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4706</v>
+        <v>4729</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002877113455110427</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.014479494929765</v>
+        <v>0.01455012979507372</v>
       </c>
     </row>
     <row r="11">
@@ -3342,7 +3342,7 @@
         <v>200511</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196200</v>
+        <v>196056</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>201446</v>
@@ -3351,7 +3351,7 @@
         <v>0.9953578199612111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9739591059297154</v>
+        <v>0.9732447632457846</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3376,7 +3376,7 @@
         <v>324094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>320323</v>
+        <v>320300</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>325029</v>
@@ -3385,7 +3385,7 @@
         <v>0.9971228865448896</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.985520505070235</v>
+        <v>0.9854498702049262</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6691</v>
+        <v>5793</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009897240332832482</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03502696012514662</v>
+        <v>0.0303227656177118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6666</v>
+        <v>6583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006791866650617727</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02394657062535668</v>
+        <v>0.02364983236299621</v>
       </c>
     </row>
     <row r="14">
@@ -3543,7 +3543,7 @@
         <v>189138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>184338</v>
+        <v>185236</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>191029</v>
@@ -3552,7 +3552,7 @@
         <v>0.9901027596671675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9649730398748534</v>
+        <v>0.9696772343822881</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>276480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>271705</v>
+        <v>271788</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>278371</v>
@@ -3586,7 +3586,7 @@
         <v>0.9932081333493823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9760534293746432</v>
+        <v>0.9763501676370038</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>5138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1942</v>
+        <v>1914</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11543</v>
+        <v>12250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04007762741589166</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01514422920586068</v>
+        <v>0.01492931161790132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09003717721022889</v>
+        <v>0.09555154029434847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4566</v>
+        <v>4651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01649608698569338</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08439096078677492</v>
+        <v>0.08595823331427559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3723,19 +3723,19 @@
         <v>6031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2291</v>
+        <v>2789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13323</v>
+        <v>12644</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03307896778257528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01256729593220898</v>
+        <v>0.01529486018508741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07307797850941206</v>
+        <v>0.06935145198358829</v>
       </c>
     </row>
     <row r="17">
@@ -3752,19 +3752,19 @@
         <v>123070</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116665</v>
+        <v>115958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126266</v>
+        <v>126294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9599223725841084</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9099628227897708</v>
+        <v>0.9044484597056515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9848557707941393</v>
+        <v>0.9850706883820987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -3773,7 +3773,7 @@
         <v>53216</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49543</v>
+        <v>49458</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>54109</v>
@@ -3782,7 +3782,7 @@
         <v>0.9835039130143066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9156090392132253</v>
+        <v>0.9140417666857245</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3794,19 +3794,19 @@
         <v>176286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168994</v>
+        <v>169673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180026</v>
+        <v>179528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9669210322174248</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9269220214905886</v>
+        <v>0.9306485480164105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.987432704067791</v>
+        <v>0.9847051398149126</v>
       </c>
     </row>
     <row r="18">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5274</v>
+        <v>5721</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005763521076241715</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0288436614375161</v>
+        <v>0.03128903950638606</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5083</v>
+        <v>5879</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01078214114641285</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05337241851784472</v>
+        <v>0.06173562683870821</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6924</v>
+        <v>6728</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007482315530147309</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02490235784247941</v>
+        <v>0.02419436461140957</v>
       </c>
     </row>
     <row r="20">
@@ -3969,7 +3969,7 @@
         <v>181779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177559</v>
+        <v>177112</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>182833</v>
@@ -3978,7 +3978,7 @@
         <v>0.9942364789237583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.971156338562484</v>
+        <v>0.9687109604936132</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3990,7 +3990,7 @@
         <v>94206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90150</v>
+        <v>89354</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>95233</v>
@@ -3999,7 +3999,7 @@
         <v>0.9892178588535872</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9466275814821519</v>
+        <v>0.9382643731612941</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>275985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>271142</v>
+        <v>271338</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>278066</v>
@@ -4020,7 +4020,7 @@
         <v>0.9925176844698527</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9750976421575196</v>
+        <v>0.9758056353885894</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4115,19 +4115,19 @@
         <v>9237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3941</v>
+        <v>4454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20253</v>
+        <v>18692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02340624625138911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009985422477152015</v>
+        <v>0.01128632844060792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05131844063185251</v>
+        <v>0.04736262531334345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5100</v>
+        <v>4953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004742137435738444</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02414778084894985</v>
+        <v>0.02345095340899987</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -4157,19 +4157,19 @@
         <v>10239</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4996</v>
+        <v>4811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19765</v>
+        <v>18990</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01689962252215048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008245687627298102</v>
+        <v>0.007940683631019903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03262244423242957</v>
+        <v>0.03134308651848629</v>
       </c>
     </row>
     <row r="23">
@@ -4186,19 +4186,19 @@
         <v>385417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>374401</v>
+        <v>375962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>390713</v>
+        <v>390200</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9765937537486109</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9486815593681476</v>
+        <v>0.9526373746866569</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9900145775228482</v>
+        <v>0.9887136715593922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>191</v>
@@ -4207,7 +4207,7 @@
         <v>210215</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>206117</v>
+        <v>206264</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>211217</v>
@@ -4216,7 +4216,7 @@
         <v>0.9952578625642615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9758522191510502</v>
+        <v>0.9765490465909999</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4228,19 +4228,19 @@
         <v>595632</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>586106</v>
+        <v>586881</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>600875</v>
+        <v>601060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9831003774778495</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.967377555767571</v>
+        <v>0.9686569134815131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9917543123727021</v>
+        <v>0.99205931636898</v>
       </c>
     </row>
     <row r="24">
@@ -4332,19 +4332,19 @@
         <v>6421</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2021</v>
+        <v>2833</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16639</v>
+        <v>17673</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01418047209246245</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004462958121890431</v>
+        <v>0.006255744333635841</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03674516147418361</v>
+        <v>0.03902849379025223</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4366,19 +4366,19 @@
         <v>6421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17553</v>
+        <v>17125</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009659850570675621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003071950001470388</v>
+        <v>0.003062129027254438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02640591273486571</v>
+        <v>0.02576246939363316</v>
       </c>
     </row>
     <row r="26">
@@ -4395,19 +4395,19 @@
         <v>446392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>436174</v>
+        <v>435140</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>450792</v>
+        <v>449980</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9858195279075376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9632548385258164</v>
+        <v>0.9609715062097478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9955370418781095</v>
+        <v>0.9937442556663642</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>194</v>
@@ -4429,19 +4429,19 @@
         <v>658300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>647168</v>
+        <v>647596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>662679</v>
+        <v>662686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9903401494293244</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9735940872651342</v>
+        <v>0.9742375306063663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9969280499985297</v>
+        <v>0.9969378709727456</v>
       </c>
     </row>
     <row r="27">
@@ -4533,19 +4533,19 @@
         <v>51661</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02538136876123935</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -4554,19 +4554,19 @@
         <v>8993</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008610313003841706</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -4575,19 +4575,19 @@
         <v>60654</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01969388441311008</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
     </row>
     <row r="29">
@@ -4604,19 +4604,19 @@
         <v>1983719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1966545</v>
+        <v>1967424</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1998441</v>
+        <v>1997300</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9746186312387607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.966180772184711</v>
+        <v>0.9666126677407711</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9818513297163279</v>
+        <v>0.9812907955119646</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>951</v>
@@ -4625,19 +4625,19 @@
         <v>1035453</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1026560</v>
+        <v>1026633</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1040488</v>
+        <v>1040294</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9913896869961583</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9828751304772306</v>
+        <v>0.9829453070399884</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9962103987029467</v>
+        <v>0.9960246798392828</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2817</v>
@@ -4646,19 +4646,19 @@
         <v>3019173</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3000991</v>
+        <v>3000800</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3033585</v>
+        <v>3033642</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.98030611558689</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9744024446993973</v>
+        <v>0.9743405845690839</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.984985482443175</v>
+        <v>0.9850039862848006</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>9356</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4104</v>
+        <v>4367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16994</v>
+        <v>17784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05236678150568747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0229718881391295</v>
+        <v>0.02444312946196712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09511190087454263</v>
+        <v>0.09953310168510335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5015,19 +5015,19 @@
         <v>3846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11787</v>
+        <v>10489</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03622355690591725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008909997807970731</v>
+        <v>0.008821027189795806</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1110300545002858</v>
+        <v>0.09880371628852176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5036,19 +5036,19 @@
         <v>13202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7149</v>
+        <v>6356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22628</v>
+        <v>22448</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04635000972338783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02509830994247512</v>
+        <v>0.02231381638387006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07944425324298066</v>
+        <v>0.0788128043348921</v>
       </c>
     </row>
     <row r="5">
@@ -5065,19 +5065,19 @@
         <v>169316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161678</v>
+        <v>160888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174568</v>
+        <v>174305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9476332184943125</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9048880991254573</v>
+        <v>0.900466898314897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9770281118608697</v>
+        <v>0.9755568705380333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -5086,19 +5086,19 @@
         <v>102315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94374</v>
+        <v>95672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105215</v>
+        <v>105225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9637764430940827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.888969945499714</v>
+        <v>0.9011962837114781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910900021920293</v>
+        <v>0.9911789728102042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -5107,19 +5107,19 @@
         <v>271631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262205</v>
+        <v>262385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>277684</v>
+        <v>278477</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9536499902766121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9205557467570172</v>
+        <v>0.9211871956651081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9749016900575248</v>
+        <v>0.97768618361613</v>
       </c>
     </row>
     <row r="6">
@@ -5211,19 +5211,19 @@
         <v>6584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2253</v>
+        <v>2218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14054</v>
+        <v>13495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02458966147304921</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008416142937087265</v>
+        <v>0.008285803388457979</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05249226267194323</v>
+        <v>0.05040299298586336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4493</v>
+        <v>5578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01084550561657757</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0439365217475015</v>
+        <v>0.05454902814514595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5253,19 +5253,19 @@
         <v>7693</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3325</v>
+        <v>3257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14519</v>
+        <v>16169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02079108608940047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008985555767450051</v>
+        <v>0.008801987555152557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0392403522665651</v>
+        <v>0.04370009504996026</v>
       </c>
     </row>
     <row r="8">
@@ -5282,19 +5282,19 @@
         <v>261154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>253684</v>
+        <v>254243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>265485</v>
+        <v>265520</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9754103385269508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9475077373280566</v>
+        <v>0.9495970070141367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9915838570629127</v>
+        <v>0.991714196611542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -5303,7 +5303,7 @@
         <v>101150</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97766</v>
+        <v>96681</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>102259</v>
@@ -5312,7 +5312,7 @@
         <v>0.9891544943834224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9560634782524985</v>
+        <v>0.9454509718548543</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5324,19 +5324,19 @@
         <v>362304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355478</v>
+        <v>353828</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>366672</v>
+        <v>366740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9792089139105995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9607596477334353</v>
+        <v>0.9562999049500415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9910144442325499</v>
+        <v>0.9911980124448475</v>
       </c>
     </row>
     <row r="9">
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4395</v>
+        <v>4293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004217772075323856</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02142783484036057</v>
+        <v>0.02093053569746001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4956</v>
+        <v>4330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002648154023787334</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01517140138166609</v>
+        <v>0.01325317942690448</v>
       </c>
     </row>
     <row r="11">
@@ -5491,7 +5491,7 @@
         <v>204250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200720</v>
+        <v>200822</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>205115</v>
@@ -5500,7 +5500,7 @@
         <v>0.9957822279246762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785721651596394</v>
+        <v>0.9790694643025399</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>325826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>321735</v>
+        <v>322361</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>326691</v>
@@ -5534,7 +5534,7 @@
         <v>0.9973518459762126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9848285986183339</v>
+        <v>0.9867468205730955</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6343</v>
+        <v>6963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005429391700255496</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02717341336160802</v>
+        <v>0.02983238308033477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7592</v>
+        <v>8126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003281328852596709</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01965873929325185</v>
+        <v>0.02104112352561564</v>
       </c>
     </row>
     <row r="14">
@@ -5692,7 +5692,7 @@
         <v>232142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227066</v>
+        <v>226446</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>233409</v>
@@ -5701,7 +5701,7 @@
         <v>0.9945706082997445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9728265866383921</v>
+        <v>0.9701676169196657</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>384939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>378614</v>
+        <v>378080</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>386206</v>
@@ -5735,7 +5735,7 @@
         <v>0.9967186711474033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9803412607067481</v>
+        <v>0.9789588764743838</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5830,19 +5830,19 @@
         <v>2857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7653</v>
+        <v>7756</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03133214951341936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01015763531705711</v>
+        <v>0.01012528519885294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08393382088802516</v>
+        <v>0.08506614997988032</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5864,19 +5864,19 @@
         <v>2857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7794</v>
+        <v>7457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02220560231853739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007182968729909577</v>
+        <v>0.007235728347161914</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06057867690983829</v>
+        <v>0.05796216180401284</v>
       </c>
     </row>
     <row r="17">
@@ -5893,19 +5893,19 @@
         <v>88320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83524</v>
+        <v>83421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90251</v>
+        <v>90254</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9686678504865807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9160661791119747</v>
+        <v>0.9149338500201192</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9898423646829428</v>
+        <v>0.989874714801147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -5927,19 +5927,19 @@
         <v>125794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120857</v>
+        <v>121194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127727</v>
+        <v>127720</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9777943976814626</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9394213230901618</v>
+        <v>0.9420378381959867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9928170312700905</v>
+        <v>0.9927642716528381</v>
       </c>
     </row>
     <row r="18">
@@ -6031,19 +6031,19 @@
         <v>2737</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7440</v>
+        <v>7337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01447841958006109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004715688419108351</v>
+        <v>0.004661664305602975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03935455590440755</v>
+        <v>0.03880786400019778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7278</v>
+        <v>7621</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02021805226885194</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06891822746251926</v>
+        <v>0.07216522751325836</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -6073,19 +6073,19 @@
         <v>4872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12338</v>
+        <v>10677</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01653544751192302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0062735522434528</v>
+        <v>0.0062698572355905</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04187336315371857</v>
+        <v>0.03623610663813428</v>
       </c>
     </row>
     <row r="20">
@@ -6102,19 +6102,19 @@
         <v>186316</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181613</v>
+        <v>181716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188161</v>
+        <v>188172</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9855215804199389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9606454440955925</v>
+        <v>0.9611921359998022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9952843115808917</v>
+        <v>0.995338335694397</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -6123,7 +6123,7 @@
         <v>103466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>98323</v>
+        <v>97980</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>105601</v>
@@ -6132,7 +6132,7 @@
         <v>0.979781947731148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.931081772537481</v>
+        <v>0.9278347724867414</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6144,19 +6144,19 @@
         <v>289782</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>282316</v>
+        <v>283977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292805</v>
+        <v>292807</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.983464552488077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9581266368462797</v>
+        <v>0.9637638933618654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9937264477565472</v>
+        <v>0.9937301427644095</v>
       </c>
     </row>
     <row r="21">
@@ -6248,19 +6248,19 @@
         <v>14473</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7913</v>
+        <v>7638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23720</v>
+        <v>23722</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03810939775243403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02083668586051245</v>
+        <v>0.02011101110445547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0624590931329177</v>
+        <v>0.06246337143818176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6269,19 +6269,19 @@
         <v>4258</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1019</v>
+        <v>1112</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10524</v>
+        <v>10339</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01667121590884535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003990525275572648</v>
+        <v>0.004354952708013453</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04120877557884259</v>
+        <v>0.04048270036846462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -6290,19 +6290,19 @@
         <v>18731</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11144</v>
+        <v>11491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29100</v>
+        <v>30045</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02948943741515977</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01754550963426079</v>
+        <v>0.0180915938741429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04581484709382404</v>
+        <v>0.04730293840398679</v>
       </c>
     </row>
     <row r="23">
@@ -6319,19 +6319,19 @@
         <v>365299</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>356052</v>
+        <v>356050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>371859</v>
+        <v>372134</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.961890602247566</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9375409068670825</v>
+        <v>0.9375366285618185</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9791633141394877</v>
+        <v>0.9798889888955445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -6340,19 +6340,19 @@
         <v>251130</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>244864</v>
+        <v>245049</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>254369</v>
+        <v>254276</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9833287840911547</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9587912244211573</v>
+        <v>0.959517299631535</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9960094747244274</v>
+        <v>0.9956450472919866</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>553</v>
@@ -6361,19 +6361,19 @@
         <v>616429</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>606060</v>
+        <v>605115</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>624016</v>
+        <v>623669</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9705105625848403</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9541851529061757</v>
+        <v>0.9526970615960131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9824544903657392</v>
+        <v>0.9819084061258571</v>
       </c>
     </row>
     <row r="24">
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6558</v>
+        <v>5709</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004101968478707366</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0143691259015781</v>
+        <v>0.01250857690072698</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6486,19 +6486,19 @@
         <v>4136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>983</v>
+        <v>1075</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9669</v>
+        <v>10248</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01566474762295346</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00372366789580815</v>
+        <v>0.00407185963469165</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03661650932587528</v>
+        <v>0.03880950664409184</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -6507,19 +6507,19 @@
         <v>6009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2804</v>
+        <v>2846</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12374</v>
+        <v>13111</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008339724167148571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003891922294928246</v>
+        <v>0.003949649326017045</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01717495764308798</v>
+        <v>0.01819787448977854</v>
       </c>
     </row>
     <row r="26">
@@ -6536,7 +6536,7 @@
         <v>454554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>449868</v>
+        <v>450717</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>456426</v>
@@ -6545,7 +6545,7 @@
         <v>0.9958980315212926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9856308740984219</v>
+        <v>0.9874914230992731</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6557,19 +6557,19 @@
         <v>259921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>254388</v>
+        <v>253809</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263074</v>
+        <v>262982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9843352523770466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9633834906741248</v>
+        <v>0.9611904933559086</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9962763321041919</v>
+        <v>0.9959281403653084</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>670</v>
@@ -6578,19 +6578,19 @@
         <v>714473</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>708108</v>
+        <v>707371</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>717678</v>
+        <v>717636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9916602758328514</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9828250423569118</v>
+        <v>0.9818021255102215</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9961080777050715</v>
+        <v>0.996050350673983</v>
       </c>
     </row>
     <row r="27">
@@ -6682,19 +6682,19 @@
         <v>40012</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0199921725099144</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -6703,19 +6703,19 @@
         <v>15484</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01351912809843498</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -6724,19 +6724,19 @@
         <v>55495</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01763614337582197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
     </row>
     <row r="29">
@@ -6753,19 +6753,19 @@
         <v>1961350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1947858</v>
+        <v>1946922</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1972536</v>
+        <v>1973578</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9800078274900856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9732663840720799</v>
+        <v>0.9727983082581091</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9855970098181079</v>
+        <v>0.9861174526962005</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1081</v>
@@ -6774,19 +6774,19 @@
         <v>1129828</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1119330</v>
+        <v>1119822</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1136859</v>
+        <v>1136648</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.986480871901565</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9773142933062555</v>
+        <v>0.9777440663777616</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9926198884152091</v>
+        <v>0.9924348261082035</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2938</v>
@@ -6795,19 +6795,19 @@
         <v>3091179</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3075156</v>
+        <v>3073400</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3104435</v>
+        <v>3104133</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.982363856624178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9772720139439055</v>
+        <v>0.9767138391874239</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9865766119952303</v>
+        <v>0.9864805983706876</v>
       </c>
     </row>
     <row r="30">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7702</v>
+        <v>6338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01150833737802191</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04533235393016295</v>
+        <v>0.03730380382297282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7593</v>
+        <v>7054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007319476244848289</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0284253552607518</v>
+        <v>0.02640606685960751</v>
       </c>
     </row>
     <row r="5">
@@ -7206,7 +7206,7 @@
         <v>167944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162197</v>
+        <v>163561</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>169899</v>
@@ -7215,7 +7215,7 @@
         <v>0.9884916626219783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9546676460698362</v>
+        <v>0.9626961961770276</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7240,16 +7240,16 @@
         <v>265175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259537</v>
+        <v>260076</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>267130</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9926805237551516</v>
+        <v>0.9926805237551518</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9715746447392486</v>
+        <v>0.9735939331403926</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -7347,16 +7347,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7071</v>
+        <v>7399</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.005447910291014314</v>
+        <v>0.005447910291014315</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02790308183461865</v>
+        <v>0.02919393200689502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7381,16 +7381,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6893</v>
+        <v>7094</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.00374399720599057</v>
+        <v>0.003743997205990569</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01869259287088215</v>
+        <v>0.01923797501244081</v>
       </c>
     </row>
     <row r="8">
@@ -7407,16 +7407,16 @@
         <v>252048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246358</v>
+        <v>246030</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>253429</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9945520897089856</v>
+        <v>0.9945520897089858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9720969181653814</v>
+        <v>0.9708060679931043</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -7441,16 +7441,16 @@
         <v>367385</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>361873</v>
+        <v>361672</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>368766</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9962560027940095</v>
+        <v>0.9962560027940093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9813074071291178</v>
+        <v>0.980762024987559</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -7545,19 +7545,19 @@
         <v>7971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3978</v>
+        <v>4095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13655</v>
+        <v>13548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04255369540256276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02123772213604401</v>
+        <v>0.02186418336733133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07290088447421608</v>
+        <v>0.07232898703344073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4018</v>
+        <v>3230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01198812745145931</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04503724330052858</v>
+        <v>0.03620530813553414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -7587,19 +7587,19 @@
         <v>9040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4860</v>
+        <v>5052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14597</v>
+        <v>14721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03269278275518987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01757462506522316</v>
+        <v>0.01826869648348672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05278767610803541</v>
+        <v>0.05323612715291735</v>
       </c>
     </row>
     <row r="11">
@@ -7616,19 +7616,19 @@
         <v>179342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173658</v>
+        <v>173765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183335</v>
+        <v>183218</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9574463045974371</v>
+        <v>0.9574463045974372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9270991155257838</v>
+        <v>0.9276710129665593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9787622778639561</v>
+        <v>0.9781358166326688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -7637,7 +7637,7 @@
         <v>88142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85193</v>
+        <v>85981</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>89211</v>
@@ -7646,7 +7646,7 @@
         <v>0.9880118725485406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9549627566994711</v>
+        <v>0.9637946918644659</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -7658,19 +7658,19 @@
         <v>267483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>261926</v>
+        <v>261802</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>271663</v>
+        <v>271471</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9673072172448102</v>
+        <v>0.9673072172448099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9472123238919644</v>
+        <v>0.9467638728470812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824253749347768</v>
+        <v>0.9817313035165133</v>
       </c>
     </row>
     <row r="12">
@@ -7762,19 +7762,19 @@
         <v>2441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6475</v>
+        <v>6692</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01204367688755289</v>
+        <v>0.01204367688755288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003167706130695023</v>
+        <v>0.00351024696987848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03194905499544143</v>
+        <v>0.03302323526134708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7783,19 +7783,19 @@
         <v>1845</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4495</v>
+        <v>5018</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01333175936329846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003215135493250908</v>
+        <v>0.003309291886859867</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03248386338885765</v>
+        <v>0.03626957063732205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -7804,19 +7804,19 @@
         <v>4285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1721</v>
+        <v>1759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9378</v>
+        <v>9620</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01256630873935104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005047262171458616</v>
+        <v>0.005159167543715744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02750091230373247</v>
+        <v>0.02820892061156537</v>
       </c>
     </row>
     <row r="14">
@@ -7833,19 +7833,19 @@
         <v>200212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196178</v>
+        <v>195961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202011</v>
+        <v>201942</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9879563231124472</v>
+        <v>0.9879563231124471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9680509450045585</v>
+        <v>0.9669767647386529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9968322938693048</v>
+        <v>0.9964897530301214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>176</v>
@@ -7854,19 +7854,19 @@
         <v>136521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>133871</v>
+        <v>133348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137921</v>
+        <v>137908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9866682406367016</v>
+        <v>0.9866682406367018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9675161366111423</v>
+        <v>0.9637304293626773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9967848645067491</v>
+        <v>0.9966907081131402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>333</v>
@@ -7875,19 +7875,19 @@
         <v>336734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331641</v>
+        <v>331399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339298</v>
+        <v>339260</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9874336912606491</v>
+        <v>0.9874336912606488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9724990876962675</v>
+        <v>0.971791079388436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9949527378285413</v>
+        <v>0.9948408324562844</v>
       </c>
     </row>
     <row r="15">
@@ -7995,16 +7995,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="17">
@@ -8055,7 +8055,7 @@
         <v>10376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -8064,7 +8064,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8076,16 +8076,16 @@
         <v>44513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8180,19 +8180,19 @@
         <v>4734</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2057</v>
+        <v>2145</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9531</v>
+        <v>9653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02904941936510753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01262348319663977</v>
+        <v>0.01316153841398717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05848327126041906</v>
+        <v>0.05923138151861351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8201,19 +8201,19 @@
         <v>2231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02272334166512192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -8222,19 +8222,19 @@
         <v>6966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3388</v>
+        <v>3437</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13101</v>
+        <v>12925</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02667093357199199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0129741601900664</v>
+        <v>0.01316085621684938</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05016239605351298</v>
+        <v>0.04948757119175624</v>
       </c>
     </row>
     <row r="20">
@@ -8251,19 +8251,19 @@
         <v>158239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153442</v>
+        <v>153320</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160916</v>
+        <v>160828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9709505806348924</v>
+        <v>0.9709505806348926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9415167287395809</v>
+        <v>0.9407686184813866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9873765168033601</v>
+        <v>0.9868384615860126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -8272,19 +8272,19 @@
         <v>95963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91907</v>
+        <v>91987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772766583348782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359735691082509</v>
+        <v>0.9367848669423112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9944185495999649</v>
+        <v>0.9944251450328244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>349</v>
@@ -8293,19 +8293,19 @@
         <v>254201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248066</v>
+        <v>248242</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>257779</v>
+        <v>257730</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9733290664280081</v>
+        <v>0.9733290664280082</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9498376039464871</v>
+        <v>0.9505124288082437</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9870258398099335</v>
+        <v>0.9868391437831506</v>
       </c>
     </row>
     <row r="21">
@@ -8397,19 +8397,19 @@
         <v>8935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4088</v>
+        <v>4205</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16515</v>
+        <v>16189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02555115054596743</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01168951982380888</v>
+        <v>0.01202456471890354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04722527605197423</v>
+        <v>0.04629247633666985</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -8418,19 +8418,19 @@
         <v>12956</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6303</v>
+        <v>6877</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24066</v>
+        <v>23567</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05528157885272185</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02689634188464581</v>
+        <v>0.02934465100324071</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1026898474746072</v>
+        <v>0.1005583754359936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -8439,19 +8439,19 @@
         <v>21891</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13415</v>
+        <v>13459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34681</v>
+        <v>34362</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0374806069499778</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0229688564251825</v>
+        <v>0.02304408231600554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05937901247736561</v>
+        <v>0.05883265826025655</v>
       </c>
     </row>
     <row r="23">
@@ -8468,19 +8468,19 @@
         <v>340770</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>333190</v>
+        <v>333516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>345617</v>
+        <v>345500</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9744488494540324</v>
+        <v>0.9744488494540328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9527747239480266</v>
+        <v>0.9537075236633301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9883104801761912</v>
+        <v>0.9879754352810961</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>275</v>
@@ -8489,19 +8489,19 @@
         <v>221401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210291</v>
+        <v>210790</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>228054</v>
+        <v>227480</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9447184211472781</v>
+        <v>0.944718421147278</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8973101525253928</v>
+        <v>0.8994416245640073</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9731036581153543</v>
+        <v>0.9706553489967593</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>557</v>
@@ -8510,19 +8510,19 @@
         <v>562171</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>549381</v>
+        <v>549700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>570647</v>
+        <v>570603</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9625193930500221</v>
+        <v>0.9625193930500222</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9406209875226346</v>
+        <v>0.9411673417397433</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9770311435748178</v>
+        <v>0.9769559176839941</v>
       </c>
     </row>
     <row r="24">
@@ -8614,19 +8614,19 @@
         <v>3018</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8344</v>
+        <v>8823</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.009637724155896508</v>
+        <v>0.00963772415589651</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002355275113070718</v>
+        <v>0.002334143526586327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02664144202567019</v>
+        <v>0.02817253641825528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4096</v>
+        <v>4064</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007046006090430343</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03587333527622548</v>
+        <v>0.03559659190862793</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -8656,19 +8656,19 @@
         <v>3823</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1146</v>
+        <v>1068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9640</v>
+        <v>8356</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008945365730549808</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002681967789666209</v>
+        <v>0.002500023508815358</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02255788902703698</v>
+        <v>0.01955227708470329</v>
       </c>
     </row>
     <row r="26">
@@ -8685,19 +8685,19 @@
         <v>310176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>304850</v>
+        <v>304371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>312456</v>
+        <v>312463</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9903622758441032</v>
+        <v>0.9903622758441034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9733585579743297</v>
+        <v>0.9718274635817455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976447248869292</v>
+        <v>0.9976658564734135</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>135</v>
@@ -8706,7 +8706,7 @@
         <v>113362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110070</v>
+        <v>110102</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>114166</v>
@@ -8715,7 +8715,7 @@
         <v>0.9929539939095697</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9641266647237744</v>
+        <v>0.9644034080913721</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -8727,19 +8727,19 @@
         <v>423538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>417721</v>
+        <v>419005</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>426215</v>
+        <v>426293</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9910546342694502</v>
+        <v>0.9910546342694503</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9774421109729631</v>
+        <v>0.9804477229152966</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9973180322103338</v>
+        <v>0.9974999764911842</v>
       </c>
     </row>
     <row r="27">
@@ -8831,19 +8831,19 @@
         <v>30436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01818891211447395</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -8852,19 +8852,19 @@
         <v>19375</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02158266978621578</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>58</v>
@@ -8873,19 +8873,19 @@
         <v>49810</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01937389432992979</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="29">
@@ -8902,19 +8902,19 @@
         <v>1642867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1630645</v>
+        <v>1631053</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1651621</v>
+        <v>1651373</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9818110878855257</v>
+        <v>0.9818110878855262</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9745065395413466</v>
+        <v>0.9747507790919481</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9870424738091178</v>
+        <v>0.9868940549708159</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1173</v>
@@ -8923,19 +8923,19 @@
         <v>878332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>866438</v>
+        <v>866396</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>885989</v>
+        <v>886284</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9784173302137842</v>
+        <v>0.9784173302137843</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9651675026293762</v>
+        <v>0.9651210079184124</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9869470049985324</v>
+        <v>0.9872749990122137</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2718</v>
@@ -8944,19 +8944,19 @@
         <v>2521200</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2506546</v>
+        <v>2505356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2533406</v>
+        <v>2533450</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9806261056700702</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9749264260505194</v>
+        <v>0.9744635805894872</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9853737963551154</v>
+        <v>0.9853909421349608</v>
       </c>
     </row>
     <row r="30">
